--- a/biology/Zoologie/Nikolaï_Drozdov/Nikolaï_Drozdov.xlsx
+++ b/biology/Zoologie/Nikolaï_Drozdov/Nikolaï_Drozdov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Drozdov</t>
+          <t>Nikolaï_Drozdov</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Nikolaï Nikolaïevitch Drozdov (en russe : Никола́й Никола́евич Дроздо́в , né le 20 juin 1937, à Moscou est un biogéographe, zoologiste, animateur de télévision, voyageur et écologiste russe[2].
+Nikolaï Nikolaïevitch Drozdov (en russe : Никола́й Никола́евич Дроздо́в , né le 20 juin 1937, à Moscou est un biogéographe, zoologiste, animateur de télévision, voyageur et écologiste russe.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Drozdov</t>
+          <t>Nikolaï_Drozdov</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Moscou, Nikolaï Drozdov est le fils de Nikolaï Sergeevich Drozdov (1902-1963), professeur au département de chimie organique de l'Université nationale de recherche médicale de Russie. Son arrière grand oncle de la lignée paternelle est Philarète de Moscou.
 En 1963, Nikolaï Drozdov est diplômé du Département de biogéographie de la Faculté de géographie de l'Université d'État de Moscou, jusqu'en 1966, il y prépare son doctorat.
-En 1968, il apparaît pour la première fois dans l'émission Dans le monde animal présentée alors par Alexandre Zgouridi. En 1971-1972, il effectue un stage scientifique de dix mois au Département de zoologie de l'Université nationale australienne (Canberra, Australie). Il a voyagé dans de nombreuses régions d'Australie et décrit ce voyage dans le livre Vol de Boomerang[3]. En 1975, il travaille au sein de la délégation soviétique à la XII Assemblée générale de l'Union internationale pour la conservation de la nature (UICN) dans la ville de Kinshasa. Élu membre de la Commission des parcs nationaux de l'UICN. Il visite la partie orientale de la république démocratique du Congo et les parcs nationaux des Virunga[4] et Kahuzi-Bega où pour la première fois, un groupe de zoologistes d'URSS a réussi à voir des gorilles de l'Est dans la nature. Des photos et un compte-rendu du voyage ont été publiés dans le magazine Nature. Dans le même 1975, après avoir visité l'Inde, Drozdov est devenu végétarien. De 1975 au 1990, avec Vassili Peskov, il anime le programme de télévision Dans le monde animal sur la Télévision centrale soviétique[5].
-Il fut lauréat du prix Kalinga décerné en 1994, pour sa contribution à la promotion des connaissances scientifiques, notamment sur la préservation de l'environnement, et à la sensibilisation du public aux enjeux environnementaux[6].
+En 1968, il apparaît pour la première fois dans l'émission Dans le monde animal présentée alors par Alexandre Zgouridi. En 1971-1972, il effectue un stage scientifique de dix mois au Département de zoologie de l'Université nationale australienne (Canberra, Australie). Il a voyagé dans de nombreuses régions d'Australie et décrit ce voyage dans le livre Vol de Boomerang. En 1975, il travaille au sein de la délégation soviétique à la XII Assemblée générale de l'Union internationale pour la conservation de la nature (UICN) dans la ville de Kinshasa. Élu membre de la Commission des parcs nationaux de l'UICN. Il visite la partie orientale de la république démocratique du Congo et les parcs nationaux des Virunga et Kahuzi-Bega où pour la première fois, un groupe de zoologistes d'URSS a réussi à voir des gorilles de l'Est dans la nature. Des photos et un compte-rendu du voyage ont été publiés dans le magazine Nature. Dans le même 1975, après avoir visité l'Inde, Drozdov est devenu végétarien. De 1975 au 1990, avec Vassili Peskov, il anime le programme de télévision Dans le monde animal sur la Télévision centrale soviétique.
+Il fut lauréat du prix Kalinga décerné en 1994, pour sa contribution à la promotion des connaissances scientifiques, notamment sur la préservation de l'environnement, et à la sensibilisation du public aux enjeux environnementaux.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nikola%C3%AF_Drozdov</t>
+          <t>Nikolaï_Drozdov</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>ordre de l'Honneur : 2006
 ordre du Mérite pour la Patrie de 3e classe : 2011
